--- a/src/test/resources/testData/DataAdUuser.xlsx
+++ b/src/test/resources/testData/DataAdUuser.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>employeeName</t>
   </si>
@@ -38,13 +38,19 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>Janet</t>
-  </si>
-  <si>
     <t>jt123</t>
   </si>
   <si>
-    <t>a123</t>
+    <t>Jacqueline White</t>
+  </si>
+  <si>
+    <t>a12345678</t>
+  </si>
+  <si>
+    <t>useRole</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -363,46 +369,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
